--- a/artfynd/A 43131-2023 artfynd.xlsx
+++ b/artfynd/A 43131-2023 artfynd.xlsx
@@ -9722,7 +9722,7 @@
         <v>124801645</v>
       </c>
       <c r="B86" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
